--- a/500all/speech_level/speeches_CHRG-114hhrg97575.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97575.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412574</t>
   </si>
   <si>
-    <t>Randy K. Weber, Sr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Weber. The Subcommittee on Energy will come to order.    Without objection, the Chair is authorized to declare recesses of the Subcommittee at any time.    Welcome to today's hearing titled ``A Review of the Nuclear Regulatory Commission's Licensing Process,'' and I recognize myself for five minutes for an opening statement.    Good morning, Chairman Burns. Welcome. Welcome to this hearing on the Nuclear Regulatory Commission's licensing process as it relates to the Department of Energy's nuclear R&amp;D programs. Today, we're going to hear from the Honorable Stephen Burns, Chairman of the U.S. Nuclear Regulatory Commission (NRC), regarding the extent to which the NRC and the DOE may actually cooperate to enable vital nuclear energy research. Chairman Burns, we're looking forward to your testimony.    Over the next five minutes or so, I want to give you a quick overview of this Subcommittee's previous hearings that have actually led us to hold this hearing today. Last December, we heard from a startup company and an environmental institution explaining that tech companies trying to develop the next generation of nuclear technology need greater regulatory certainty to raise capital in today's market. They suggested that the DOE should use its national labs as a forum to allow private developers to carry out this work--interesting suggestion.    In May, we heard from another tech company explaining that research infrastructure to provide versatile neutron irradiation capabilities is vital for universities and the next-generation tech companies to research new materials and fuels. We also heard from the Director of DOE's Nuclear Energy Innovation Hub that the increased capabilities to model and simulate nuclear reactions will allow researchers to eliminate assumptions, which can speed up and lower the cost to develop new technologies across the board.    So what does all this mean? I'll keep it simple: we have the best engineers in the world that want to take on commercial risk and develop these next-generation technologies if we just give them the opportunity. These new technologies can do five things: number one, mitigate proliferation risk, which is important; number two, increase fuel utilization; number three, reduce waste yields; number four, achieve higher safety margins; and number five, reach higher levels of thermal efficiency.    The United States is at its best when we provide a clear path for our for our technology innovators to do what they do best: find creative solutions to the world's challenges.    So now I'll explain what we intend to discuss in today's hearing. This Committee has often found bipartisan support for the nation's open-access user facilities that provide unique capabilities for both basic and applied R&amp;D. This is a particularly good model because the users ultimately take on whatever form of commercial risk they so choose while the government simply provides the infrastructure capability. The prospective DOE user facility we're considering today would be a fast-reactor-based neutron source. As a practical matter, the construction of such a facility will almost certainly require some form of technical assistance from the NRC, and that will be an interesting topic to explore.    Another issue, and perhaps the most challenging question for the Subcommittee, is how can the federal government can make the process simpler for entrepreneurs to conduct experiments that would enable them to translate theories for alternative reactor concepts into reality. The NRC has a regulatory process for non-power reactors, but the time required to issue a license appears to have created somewhat of a barrier to investment. So this raises a couple of important questions relevant to our discussion today. Number one, can the DOE use its authority to host private developers to conduct novel experiments advancing next-generation nuclear technology? And number two, could the NRC benefit in any way by allowing its staff to provide technical expertise and gain firsthand knowledge of such reactor experiments?    It is important that we work together to find solutions to these challenges. America cannot and must not lag behind our global competitors in this area of critical technology.    Again, we want to thank Chairman Burns for his testimony today, and we look forward to hearing from you on the NRC's role in advancing nuclear energy for our nation.</t>
   </si>
   <si>
@@ -64,18 +61,12 @@
     <t>412276</t>
   </si>
   <si>
-    <t>Alan Grayson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grayson. Thank you, Chairman Weber, for holding this hearing today, and thank you, Chairman Burns, for testifying this morning.    The Nuclear Regulatory Commission has a vital role to play in ensuring the health and safety of the American people. The importance of this role in protecting health and the environment cannot be overstated.    I look forward to learning more this morning about how the NRC is applying lessons learned during the Fukushima disaster in 2011, and lessons learned during the premature degradation of parts of the San Onofre Nuclear Generating Station in 2012, as well as similar incidents and accidents around the world.    Today we'll discuss new, advanced nuclear technologies that address the safety, waste, and cost issues associated with previous generations of nuclear power plants. Given that the bulk of NRC's expertise and resources are focused on licensing, and ensuring the safety of, current light-water reactors, the path for developing, commercializing, and licensing newer technologies is less clear. Should a breakthrough in nuclear fusion be achieved in the next decade, the path toward licensing a fusion reactor is to be determined. I look forward to working with you, Chairman Burns, to address these issues as they arise.    New technologies have a potential to change the world's energy landscape radically. They have the potential to meet our energy needs while significantly reducing the threat of climate disruption. We must give these new energy options the chance to prove themselves while also ensuring that they are not compromising our health or our safety in any way.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Burns</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Burns. I look forward to hearing your testimony, and I yield back the balance of my time.</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>400381</t>
   </si>
   <si>
-    <t>Lamar Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Mr. Chairman.    Today's hearing will examine opportunities for advances in nuclear fission and fusion energy technologies. We will hear from the Chairman of the U.S. Nuclear Regulatory Commission, Stephen Burns, who will provide the regulatory perspective on matters of policy for the next generation of nuclear energy technology.    The Nuclear Regulatory Commission is an independent regulatory agency that licenses and regulates America's civilian nuclear material and technology. The NRC was established in 1974 when Congress separated the supportive nuclear research and development aspects of the Atomic Energy Commission from its regulatory side.    Currently, the Department of Energy supports nuclear R&amp;D to advance nuclear science while the NRC licenses new technologies as the private sector brings them to the market.    Today we will get a better understanding of how DOE can more effectively advance innovation in nuclear energy and align its R&amp;D priorities to fill gaps where the NRC is not permitted to do so.    Nuclear energy provides reliable, zero-emission power. This technology represents a great opportunity for innovation to increase our nation's economic prosperity and global competitiveness. Yet the status quo is not working to bring new reactor concepts to the market. One challenge is that the NRC's licensing mechanism for alternative reactor concepts is not yet fully developed. This is not necessarily a fault of the NRC, as it must first oversee the safety of its licensees, which fund 90 percent of the Commission's budget. The NRC's strict mission focus has helped the U.S. nuclear industry attain one of the safest working environments in the world.    The Committee's responsibility, however, is to look beyond today. We must search for opportunities where our nation's R&amp;D can help make our future brighter.    The DOE national laboratories provide vital capabilities for the private sector to invest in innovative energy technologies. This includes its open-access user facilities, which are one-of-a-kind machines that allow researchers to investigate fundamental scientific questions. These facilities enable a wide array of researchers from academia, defense, and the private sector to develop new technologies without favoring one type of design. This represents a better approach than simply picking winners and losers through energy subsidies.    DOE's labs also provide the fundamental research capabilities that lead to scientific publications or proprietary research. For nuclear energy R&amp;D, this research is especially challenging because of the inherent regulatory burden that comes with using nuclear material. For this reason, the DOE and NRC should cooperate where appropriate to ensure that the R&amp;D investments we make today will reach the market for the benefit of all Americans tomorrow.    Thank you, Mr. Chairman, and I yield back.</t>
   </si>
   <si>
@@ -169,9 +157,6 @@
     <t>400343</t>
   </si>
   <si>
-    <t>Dana Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much, Mr. Chairman, and can I ask you, how many employees does your agency have?</t>
   </si>
   <si>
@@ -223,9 +208,6 @@
     <t>412192</t>
   </si>
   <si>
-    <t>Ed Perlmutter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Perlmutter. Thanks, Mr. Chair, and thanks to Mr. Rohrabacher. Honestly, this is an area where I'm new to this subject and new to this Committee, so I'm going to have some very basic questions for you.    My district includes Rocky Flats, you know, where we produced a lot of plutonium triggers over the years. North of us, we have a mothballed long time ago plant called Fort St. Vrain.</t>
   </si>
   <si>
@@ -329,9 +311,6 @@
   </si>
   <si>
     <t>412422</t>
-  </si>
-  <si>
-    <t>Randy Hultgren</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hultgren. Thank you, Chairman.    Thank you, Chairman Burns, for being here today. Nuclear energy is very important for my home state in Illinois, and with increasing burdensome regulatory regime being proposed by EPA, nuclear energy is still the only viable zero-emission-based-load power source with arbitrary cups that our states are being forced to implement. Just maintaining our current fleet is vital to be able to hit these mandates. But there's more we could be doing to put America in a place to lead the world and the next generation of advanced reactors. Where are our reactors go, our regulatory structure goes with them. We need to be aware of this and we need to get a foothold in our nations if we'll be able to export these technologies in the future. For this to happen, we need a regulatory structure that seamlessly allows for the informed licensing of these facilities down the road.    Chairman Burns, I appreciate your commentary on my legislation, and I do have some questions about where the line is drawn between the DOE and the NRC authority to regulate a facility. You said in your written testimony, and I quote, that ``NRC would not have regulatory authority over reactors located in DOE-owned facilities that are used for the purpose of collecting data for research, testing of materials, or testing of fuels.''    At the same time, you say you would have authority over a facility that is operated in a manner for the purpose of demonstrating the suitability for commercial application of a power generation facility. I wondered, where is the line drawn if we are researching new materials? Does it become NRC jurisdiction if they are just trying to proof-of-concept work for something down the road? At the early stage we are certainly trying to establish the properties of new material and fuel but when does NRC consider this research to be for commercial application?</t>
@@ -826,11 +805,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -852,11 +829,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -876,13 +851,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -902,13 +875,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -930,11 +901,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -954,13 +923,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -982,11 +949,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1006,13 +971,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1034,11 +997,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1058,13 +1019,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1086,11 +1045,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1110,13 +1067,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1138,11 +1093,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1162,13 +1115,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1190,11 +1141,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1214,13 +1163,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1242,11 +1189,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1266,13 +1211,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1294,11 +1237,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1318,13 +1259,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1346,11 +1285,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1370,13 +1307,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1396,13 +1331,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1422,13 +1355,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1448,13 +1379,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1474,13 +1403,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1500,13 +1427,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1526,13 +1451,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1552,13 +1475,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1578,13 +1499,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1606,11 +1525,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1630,13 +1547,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" t="s">
-        <v>51</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1656,13 +1571,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1682,13 +1595,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>50</v>
-      </c>
-      <c r="G35" t="s">
-        <v>51</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1708,13 +1619,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1734,13 +1643,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
-      </c>
-      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
         <v>51</v>
-      </c>
-      <c r="H37" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1760,13 +1667,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1786,13 +1691,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
-      </c>
-      <c r="G39" t="s">
-        <v>51</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1812,13 +1715,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1838,13 +1739,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
-      </c>
-      <c r="G41" t="s">
-        <v>51</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1866,11 +1765,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1890,13 +1787,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>50</v>
-      </c>
-      <c r="G43" t="s">
-        <v>51</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1918,11 +1813,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1942,13 +1835,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
-      </c>
-      <c r="G45" t="s">
-        <v>51</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1970,11 +1861,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1994,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
-      </c>
-      <c r="G47" t="s">
-        <v>51</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2022,11 +1909,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2046,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
-      </c>
-      <c r="G49" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2072,13 +1955,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2098,13 +1979,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
-      </c>
-      <c r="G51" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2124,13 +2003,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2150,13 +2027,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
+        <v>63</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
         <v>68</v>
-      </c>
-      <c r="G53" t="s">
-        <v>69</v>
-      </c>
-      <c r="H53" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2176,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2202,13 +2075,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>68</v>
-      </c>
-      <c r="G55" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2228,13 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2254,13 +2123,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>68</v>
-      </c>
-      <c r="G57" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2280,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2306,13 +2171,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>68</v>
-      </c>
-      <c r="G59" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2332,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2358,13 +2219,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>68</v>
-      </c>
-      <c r="G61" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2384,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2410,13 +2267,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>68</v>
-      </c>
-      <c r="G63" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2436,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2462,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>68</v>
-      </c>
-      <c r="G65" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2488,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2514,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>68</v>
-      </c>
-      <c r="G67" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2540,13 +2387,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2566,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>68</v>
-      </c>
-      <c r="G69" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2592,13 +2435,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2618,13 +2459,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>68</v>
-      </c>
-      <c r="G71" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2644,13 +2483,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2670,13 +2507,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>68</v>
-      </c>
-      <c r="G73" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2696,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2722,13 +2555,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>68</v>
-      </c>
-      <c r="G75" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2748,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>50</v>
-      </c>
-      <c r="G76" t="s">
-        <v>51</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2774,13 +2603,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>68</v>
-      </c>
-      <c r="G77" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2800,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2826,13 +2651,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>68</v>
-      </c>
-      <c r="G79" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2852,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2878,13 +2699,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>68</v>
-      </c>
-      <c r="G81" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2906,11 +2725,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2930,13 +2747,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>104</v>
-      </c>
-      <c r="G83" t="s">
-        <v>105</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2956,13 +2771,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2982,13 +2795,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>104</v>
-      </c>
-      <c r="G85" t="s">
-        <v>105</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3008,13 +2819,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3034,13 +2843,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>104</v>
-      </c>
-      <c r="G87" t="s">
-        <v>105</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3060,13 +2867,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3086,13 +2891,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>104</v>
-      </c>
-      <c r="G89" t="s">
+        <v>98</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
         <v>105</v>
-      </c>
-      <c r="H89" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3112,13 +2915,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3138,13 +2939,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>104</v>
-      </c>
-      <c r="G91" t="s">
-        <v>105</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3164,13 +2963,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3190,13 +2987,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>104</v>
-      </c>
-      <c r="G93" t="s">
-        <v>105</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3216,13 +3011,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3242,13 +3035,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>104</v>
-      </c>
-      <c r="G95" t="s">
-        <v>105</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3268,13 +3059,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3294,13 +3083,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>104</v>
-      </c>
-      <c r="G97" t="s">
-        <v>105</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3322,11 +3109,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3346,13 +3131,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>104</v>
-      </c>
-      <c r="G99" t="s">
-        <v>105</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3372,13 +3155,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3398,13 +3179,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>104</v>
-      </c>
-      <c r="G101" t="s">
-        <v>105</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3426,11 +3205,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3450,13 +3227,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3478,11 +3253,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3502,13 +3275,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>18</v>
-      </c>
-      <c r="G105" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3530,11 +3301,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3554,13 +3323,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>50</v>
-      </c>
-      <c r="G107" t="s">
-        <v>51</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3580,13 +3347,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3606,13 +3371,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>50</v>
-      </c>
-      <c r="G109" t="s">
-        <v>51</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3632,13 +3395,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3658,13 +3419,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>50</v>
-      </c>
-      <c r="G111" t="s">
-        <v>51</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3684,13 +3443,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3710,13 +3467,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>50</v>
-      </c>
-      <c r="G113" t="s">
-        <v>51</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3738,11 +3493,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>12</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97575.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97575.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>412574</t>
   </si>
   <si>
+    <t>Weber</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Weber. The Subcommittee on Energy will come to order.    Without objection, the Chair is authorized to declare recesses of the Subcommittee at any time.    Welcome to today's hearing titled ``A Review of the Nuclear Regulatory Commission's Licensing Process,'' and I recognize myself for five minutes for an opening statement.    Good morning, Chairman Burns. Welcome. Welcome to this hearing on the Nuclear Regulatory Commission's licensing process as it relates to the Department of Energy's nuclear R&amp;D programs. Today, we're going to hear from the Honorable Stephen Burns, Chairman of the U.S. Nuclear Regulatory Commission (NRC), regarding the extent to which the NRC and the DOE may actually cooperate to enable vital nuclear energy research. Chairman Burns, we're looking forward to your testimony.    Over the next five minutes or so, I want to give you a quick overview of this Subcommittee's previous hearings that have actually led us to hold this hearing today. Last December, we heard from a startup company and an environmental institution explaining that tech companies trying to develop the next generation of nuclear technology need greater regulatory certainty to raise capital in today's market. They suggested that the DOE should use its national labs as a forum to allow private developers to carry out this work--interesting suggestion.    In May, we heard from another tech company explaining that research infrastructure to provide versatile neutron irradiation capabilities is vital for universities and the next-generation tech companies to research new materials and fuels. We also heard from the Director of DOE's Nuclear Energy Innovation Hub that the increased capabilities to model and simulate nuclear reactions will allow researchers to eliminate assumptions, which can speed up and lower the cost to develop new technologies across the board.    So what does all this mean? I'll keep it simple: we have the best engineers in the world that want to take on commercial risk and develop these next-generation technologies if we just give them the opportunity. These new technologies can do five things: number one, mitigate proliferation risk, which is important; number two, increase fuel utilization; number three, reduce waste yields; number four, achieve higher safety margins; and number five, reach higher levels of thermal efficiency.    The United States is at its best when we provide a clear path for our for our technology innovators to do what they do best: find creative solutions to the world's challenges.    So now I'll explain what we intend to discuss in today's hearing. This Committee has often found bipartisan support for the nation's open-access user facilities that provide unique capabilities for both basic and applied R&amp;D. This is a particularly good model because the users ultimately take on whatever form of commercial risk they so choose while the government simply provides the infrastructure capability. The prospective DOE user facility we're considering today would be a fast-reactor-based neutron source. As a practical matter, the construction of such a facility will almost certainly require some form of technical assistance from the NRC, and that will be an interesting topic to explore.    Another issue, and perhaps the most challenging question for the Subcommittee, is how can the federal government can make the process simpler for entrepreneurs to conduct experiments that would enable them to translate theories for alternative reactor concepts into reality. The NRC has a regulatory process for non-power reactors, but the time required to issue a license appears to have created somewhat of a barrier to investment. So this raises a couple of important questions relevant to our discussion today. Number one, can the DOE use its authority to host private developers to conduct novel experiments advancing next-generation nuclear technology? And number two, could the NRC benefit in any way by allowing its staff to provide technical expertise and gain firsthand knowledge of such reactor experiments?    It is important that we work together to find solutions to these challenges. America cannot and must not lag behind our global competitors in this area of critical technology.    Again, we want to thank Chairman Burns for his testimony today, and we look forward to hearing from you on the NRC's role in advancing nuclear energy for our nation.</t>
   </si>
   <si>
@@ -61,12 +70,21 @@
     <t>412276</t>
   </si>
   <si>
+    <t>Grayson</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Grayson. Thank you, Chairman Weber, for holding this hearing today, and thank you, Chairman Burns, for testifying this morning.    The Nuclear Regulatory Commission has a vital role to play in ensuring the health and safety of the American people. The importance of this role in protecting health and the environment cannot be overstated.    I look forward to learning more this morning about how the NRC is applying lessons learned during the Fukushima disaster in 2011, and lessons learned during the premature degradation of parts of the San Onofre Nuclear Generating Station in 2012, as well as similar incidents and accidents around the world.    Today we'll discuss new, advanced nuclear technologies that address the safety, waste, and cost issues associated with previous generations of nuclear power plants. Given that the bulk of NRC's expertise and resources are focused on licensing, and ensuring the safety of, current light-water reactors, the path for developing, commercializing, and licensing newer technologies is less clear. Should a breakthrough in nuclear fusion be achieved in the next decade, the path toward licensing a fusion reactor is to be determined. I look forward to working with you, Chairman Burns, to address these issues as they arise.    New technologies have a potential to change the world's energy landscape radically. They have the potential to meet our energy needs while significantly reducing the threat of climate disruption. We must give these new energy options the chance to prove themselves while also ensuring that they are not compromising our health or our safety in any way.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Burns</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Burns. I look forward to hearing your testimony, and I yield back the balance of my time.</t>
   </si>
   <si>
@@ -76,6 +94,12 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Lamar</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Mr. Chairman.    Today's hearing will examine opportunities for advances in nuclear fission and fusion energy technologies. We will hear from the Chairman of the U.S. Nuclear Regulatory Commission, Stephen Burns, who will provide the regulatory perspective on matters of policy for the next generation of nuclear energy technology.    The Nuclear Regulatory Commission is an independent regulatory agency that licenses and regulates America's civilian nuclear material and technology. The NRC was established in 1974 when Congress separated the supportive nuclear research and development aspects of the Atomic Energy Commission from its regulatory side.    Currently, the Department of Energy supports nuclear R&amp;D to advance nuclear science while the NRC licenses new technologies as the private sector brings them to the market.    Today we will get a better understanding of how DOE can more effectively advance innovation in nuclear energy and align its R&amp;D priorities to fill gaps where the NRC is not permitted to do so.    Nuclear energy provides reliable, zero-emission power. This technology represents a great opportunity for innovation to increase our nation's economic prosperity and global competitiveness. Yet the status quo is not working to bring new reactor concepts to the market. One challenge is that the NRC's licensing mechanism for alternative reactor concepts is not yet fully developed. This is not necessarily a fault of the NRC, as it must first oversee the safety of its licensees, which fund 90 percent of the Commission's budget. The NRC's strict mission focus has helped the U.S. nuclear industry attain one of the safest working environments in the world.    The Committee's responsibility, however, is to look beyond today. We must search for opportunities where our nation's R&amp;D can help make our future brighter.    The DOE national laboratories provide vital capabilities for the private sector to invest in innovative energy technologies. This includes its open-access user facilities, which are one-of-a-kind machines that allow researchers to investigate fundamental scientific questions. These facilities enable a wide array of researchers from academia, defense, and the private sector to develop new technologies without favoring one type of design. This represents a better approach than simply picking winners and losers through energy subsidies.    DOE's labs also provide the fundamental research capabilities that lead to scientific publications or proprietary research. For nuclear energy R&amp;D, this research is especially challenging because of the inherent regulatory burden that comes with using nuclear material. For this reason, the DOE and NRC should cooperate where appropriate to ensure that the R&amp;D investments we make today will reach the market for the benefit of all Americans tomorrow.    Thank you, Mr. Chairman, and I yield back.</t>
   </si>
   <si>
@@ -157,6 +181,12 @@
     <t>400343</t>
   </si>
   <si>
+    <t>Rohrabacher</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much, Mr. Chairman, and can I ask you, how many employees does your agency have?</t>
   </si>
   <si>
@@ -208,6 +238,12 @@
     <t>412192</t>
   </si>
   <si>
+    <t>Perlmutter</t>
+  </si>
+  <si>
+    <t>Ed</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Perlmutter. Thanks, Mr. Chair, and thanks to Mr. Rohrabacher. Honestly, this is an area where I'm new to this subject and new to this Committee, so I'm going to have some very basic questions for you.    My district includes Rocky Flats, you know, where we produced a lot of plutonium triggers over the years. North of us, we have a mothballed long time ago plant called Fort St. Vrain.</t>
   </si>
   <si>
@@ -311,6 +347,9 @@
   </si>
   <si>
     <t>412422</t>
+  </si>
+  <si>
+    <t>Hultgren</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hultgren. Thank you, Chairman.    Thank you, Chairman Burns, for being here today. Nuclear energy is very important for my home state in Illinois, and with increasing burdensome regulatory regime being proposed by EPA, nuclear energy is still the only viable zero-emission-based-load power source with arbitrary cups that our states are being forced to implement. Just maintaining our current fleet is vital to be able to hit these mandates. But there's more we could be doing to put America in a place to lead the world and the next generation of advanced reactors. Where are our reactors go, our regulatory structure goes with them. We need to be aware of this and we need to get a foothold in our nations if we'll be able to export these technologies in the future. For this to happen, we need a regulatory structure that seamlessly allows for the informed licensing of these facilities down the road.    Chairman Burns, I appreciate your commentary on my legislation, and I do have some questions about where the line is drawn between the DOE and the NRC authority to regulate a facility. You said in your written testimony, and I quote, that ``NRC would not have regulatory authority over reactors located in DOE-owned facilities that are used for the purpose of collecting data for research, testing of materials, or testing of fuels.''    At the same time, you say you would have authority over a facility that is operated in a manner for the purpose of demonstrating the suitability for commercial application of a power generation facility. I wondered, where is the line drawn if we are researching new materials? Does it become NRC jurisdiction if they are just trying to proof-of-concept work for something down the road? At the early stage we are certainly trying to establish the properties of new material and fuel but when does NRC consider this research to be for commercial application?</t>
@@ -755,7 +794,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -763,7 +802,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -785,2717 +824,3197 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G31" t="s">
+        <v>18</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G33" t="s">
+        <v>55</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G35" t="s">
+        <v>55</v>
+      </c>
       <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>46</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G37" t="s">
+        <v>55</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G39" t="s">
+        <v>55</v>
+      </c>
       <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G41" t="s">
+        <v>55</v>
+      </c>
       <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>46</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G43" t="s">
+        <v>55</v>
+      </c>
       <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
       <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>46</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G45" t="s">
+        <v>55</v>
+      </c>
       <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G47" t="s">
+        <v>55</v>
+      </c>
       <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G49" t="s">
+        <v>74</v>
+      </c>
       <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G51" t="s">
+        <v>74</v>
+      </c>
       <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G53" t="s">
+        <v>74</v>
+      </c>
       <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>63</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G55" t="s">
+        <v>74</v>
+      </c>
       <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>63</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G57" t="s">
+        <v>74</v>
+      </c>
       <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G58" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>63</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G59" t="s">
+        <v>74</v>
+      </c>
       <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>63</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G61" t="s">
+        <v>74</v>
+      </c>
       <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G62" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>63</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G63" t="s">
+        <v>74</v>
+      </c>
       <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>63</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G65" t="s">
+        <v>74</v>
+      </c>
       <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>63</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G67" t="s">
+        <v>74</v>
+      </c>
       <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>22</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>63</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G69" t="s">
+        <v>74</v>
+      </c>
       <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G70" t="s">
+        <v>22</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>63</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G71" t="s">
+        <v>74</v>
+      </c>
       <c r="H71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>63</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G73" t="s">
+        <v>74</v>
+      </c>
       <c r="H73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>63</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G75" t="s">
+        <v>74</v>
+      </c>
       <c r="H75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G76" t="s">
+        <v>55</v>
+      </c>
       <c r="H76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>63</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G77" t="s">
+        <v>74</v>
+      </c>
       <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G78" t="s">
+        <v>22</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>63</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G79" t="s">
+        <v>74</v>
+      </c>
       <c r="H79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G80" t="s">
+        <v>22</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>63</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G81" t="s">
+        <v>74</v>
+      </c>
       <c r="H81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
       <c r="H82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>98</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G83" t="s">
+        <v>111</v>
+      </c>
       <c r="H83" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G84" t="s">
+        <v>22</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>98</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G85" t="s">
+        <v>111</v>
+      </c>
       <c r="H85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G86" t="s">
+        <v>22</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>98</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G87" t="s">
+        <v>111</v>
+      </c>
       <c r="H87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G88" t="s">
+        <v>22</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>98</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G89" t="s">
+        <v>111</v>
+      </c>
       <c r="H89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G90" t="s">
+        <v>22</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>98</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G91" t="s">
+        <v>111</v>
+      </c>
       <c r="H91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G92" t="s">
+        <v>22</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>98</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G93" t="s">
+        <v>111</v>
+      </c>
       <c r="H93" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G94" t="s">
+        <v>22</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>98</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G95" t="s">
+        <v>111</v>
+      </c>
       <c r="H95" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G96" t="s">
+        <v>22</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>98</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G97" t="s">
+        <v>111</v>
+      </c>
       <c r="H97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
       <c r="H98" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>98</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G99" t="s">
+        <v>111</v>
+      </c>
       <c r="H99" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G100" t="s">
+        <v>22</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>98</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G101" t="s">
+        <v>111</v>
+      </c>
       <c r="H101" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
       <c r="H102" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G103" t="s">
+        <v>22</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
       <c r="H104" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G105" t="s">
+        <v>22</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>13</v>
+      </c>
       <c r="H106" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>46</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G107" t="s">
+        <v>55</v>
+      </c>
       <c r="H107" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I107" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G108" t="s">
+        <v>22</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>46</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G109" t="s">
+        <v>55</v>
+      </c>
       <c r="H109" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I109" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G110" t="s">
+        <v>22</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>46</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G111" t="s">
+        <v>55</v>
+      </c>
       <c r="H111" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I111" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G112" t="s">
+        <v>22</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>46</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G113" t="s">
+        <v>55</v>
+      </c>
       <c r="H113" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I113" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>13</v>
+      </c>
       <c r="H114" t="s">
-        <v>130</v>
+        <v>14</v>
+      </c>
+      <c r="I114" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97575.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97575.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="149">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412574</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Weber</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>412276</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Grayson</t>
   </si>
   <si>
@@ -94,6 +103,9 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -179,6 +191,9 @@
   </si>
   <si>
     <t>400343</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Rohrabacher</t>
@@ -794,7 +809,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -802,7 +817,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -827,3194 +842,3448 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
         <v>19</v>
       </c>
-      <c r="I25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" t="s">
         <v>21</v>
       </c>
-      <c r="G26" t="s">
+      <c r="I27" t="s">
         <v>22</v>
       </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G33" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G35" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G37" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I37" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>22</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G39" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s">
-        <v>22</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G41" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H41" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G43" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H43" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G45" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H45" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G47" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H47" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H49" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>22</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H51" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>22</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I53" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s">
-        <v>22</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s">
-        <v>22</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H57" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I57" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s">
-        <v>22</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>25</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H59" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I59" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" t="s">
-        <v>22</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H61" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s">
-        <v>22</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>25</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H63" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s">
-        <v>22</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H65" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I65" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s">
-        <v>22</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>25</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H67" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I67" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s">
-        <v>22</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>25</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H69" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I69" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" t="s">
-        <v>22</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G71" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H71" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I71" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s">
-        <v>22</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>25</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G73" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H73" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I73" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s">
-        <v>22</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>25</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G75" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H75" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I75" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G76" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H76" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I76" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G77" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H77" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I77" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" t="s">
-        <v>22</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>25</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G79" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H79" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I79" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" t="s">
-        <v>22</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>25</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G81" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H81" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I81" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G83" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="H83" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="I83" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
-      </c>
-      <c r="G84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>25</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G85" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="H85" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="I85" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" t="s">
-        <v>22</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>25</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G87" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="H87" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="I87" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" t="s">
-        <v>22</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>25</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G89" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="I89" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s">
-        <v>22</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>25</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G91" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="I91" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" t="s">
-        <v>22</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>25</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G93" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="H93" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="I93" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94" t="s">
-        <v>22</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>25</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G95" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="I95" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J95" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" t="s">
-        <v>22</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>25</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G97" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="H97" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="I97" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J97" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G99" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="I99" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J99" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s">
-        <v>22</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>25</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G101" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="I101" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J101" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I102" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J102" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>21</v>
-      </c>
-      <c r="G103" t="s">
-        <v>22</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>25</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I104" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J104" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>21</v>
-      </c>
-      <c r="G105" t="s">
-        <v>22</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>25</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I106" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J106" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G107" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H107" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I107" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J107" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>21</v>
-      </c>
-      <c r="G108" t="s">
-        <v>22</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>25</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G109" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H109" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I109" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J109" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" t="s">
-        <v>22</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>25</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G111" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H111" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I111" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J111" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>21</v>
-      </c>
-      <c r="G112" t="s">
-        <v>22</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>25</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G113" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H113" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I113" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J113" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I114" t="s">
-        <v>143</v>
+        <v>16</v>
+      </c>
+      <c r="J114" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
